--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1774526.828913929</v>
+        <v>1719574.939629833</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013175</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>326.2189840146602</v>
+        <v>287.076450173135</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>95.68190834795202</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>22.7004203213371</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>52.42857711587125</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>326.2189840146602</v>
+        <v>119.3204955408271</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.84345120350704</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>170.4649541459388</v>
       </c>
       <c r="W15" t="n">
-        <v>22.7004203213371</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.00010435294871</v>
+        <v>76.5351950996145</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>326.2189840146602</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>242.7561982731894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1931,16 +1931,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>80.84345120350704</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886883</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>5.508175195980934</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>199.2180566268436</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.2101074720031217</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>101.9377193492569</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>318.5424637466175</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>38.78787682753358</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>79.99132866338577</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>7.226885210985782</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>213.160152368576</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>270.2609577228906</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.329915919761908</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>105.675536872846</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
@@ -2453,7 +2453,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -2465,7 +2465,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.93456886964954</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>20.60393736748686</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>142.869448313047</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>7.840339739762198</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>115.1070645654642</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>237.1773944157285</v>
@@ -2702,7 +2702,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>16.93456886964949</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>73.35340349906454</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,22 +2794,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>134.7549293585491</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>68.40860258949205</v>
       </c>
       <c r="G29" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2876,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>38.44565182184061</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>220.3207794234618</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2939,7 +2939,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="T31" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>295.5640737715661</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>226.5113941026896</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -3116,13 +3116,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>28.21102703659562</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>145.3411512393145</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.226885210985788</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>158.5544880611391</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,16 +3322,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>198.456495006813</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -3347,13 +3347,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -3362,10 +3362,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>28.00861959304615</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
         <v>177.283526739121</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>169.4232937117396</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>113.9533051086302</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>13.723908424085</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -3568,10 +3568,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3593,16 +3593,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>126.372435527377</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.3241889502359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>129.4825785166958</v>
+        <v>137.4545982671964</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>149.3043766839643</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>354.2948700847824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1773944157285</v>
+        <v>143.9991220946557</v>
       </c>
       <c r="V42" t="n">
-        <v>146.4147744901436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>50.00010435294849</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>323.3915309087403</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8084196484502</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
@@ -4067,7 +4067,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
@@ -4076,7 +4076,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>22.70042032133665</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>96.74888064782394</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>129.4825785166958</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>158.6107100818746</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1715.732642722258</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C11" t="n">
-        <v>1715.732642722258</v>
+        <v>731.5628344838881</v>
       </c>
       <c r="D11" t="n">
-        <v>1715.732642722258</v>
+        <v>731.5628344838881</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602939</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193745</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
         <v>1460.632785841149</v>
@@ -5074,19 +5074,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>304.5262490036893</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>304.5262490036893</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>304.5262490036893</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>130.9630451251038</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>130.9630451251038</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L12" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M12" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722258</v>
@@ -5150,22 +5150,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.732642722258</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U12" t="n">
-        <v>1715.732642722258</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V12" t="n">
-        <v>1715.732642722258</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W12" t="n">
-        <v>1692.802925225958</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X12" t="n">
-        <v>1473.294930842654</v>
+        <v>530.1669420683617</v>
       </c>
       <c r="Y12" t="n">
-        <v>1247.654237777982</v>
+        <v>304.5262490036893</v>
       </c>
     </row>
     <row r="13">
@@ -5202,43 +5202,43 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444516</v>
+        <v>87.27281155734542</v>
       </c>
       <c r="X13" t="n">
         <v>34.31465285444516</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1715.732642722258</v>
+        <v>490.4747037492248</v>
       </c>
       <c r="C14" t="n">
-        <v>1715.732642722258</v>
+        <v>490.4747037492248</v>
       </c>
       <c r="D14" t="n">
-        <v>1715.732642722258</v>
+        <v>490.4747037492248</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
@@ -5290,40 +5290,40 @@
         <v>856.646000929278</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="V14" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="W14" t="n">
-        <v>1715.732642722258</v>
+        <v>853.8915868751906</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.732642722258</v>
+        <v>490.4747037492248</v>
       </c>
       <c r="Y14" t="n">
-        <v>1715.732642722258</v>
+        <v>490.4747037492248</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.118384851047</v>
+        <v>439.006942030505</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7061105840106</v>
+        <v>439.006942030505</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9259943450423</v>
+        <v>439.006942030505</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G15" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H15" t="n">
         <v>115.9747045751594</v>
@@ -5360,49 +5360,49 @@
         <v>54.4093011102587</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443597</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974213</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U15" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="V15" t="n">
-        <v>1715.732642722258</v>
+        <v>1062.691482405416</v>
       </c>
       <c r="W15" t="n">
-        <v>1692.802925225958</v>
+        <v>1062.691482405416</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.294930842654</v>
+        <v>843.1834880221124</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.654237777982</v>
+        <v>617.54279495744</v>
       </c>
     </row>
     <row r="16">
@@ -5439,7 +5439,7 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306433</v>
@@ -5457,13 +5457,13 @@
         <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809702</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651457</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444516</v>
+        <v>257.5493975016237</v>
       </c>
       <c r="T16" t="n">
         <v>34.31465285444516</v>
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722258</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722258</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602993</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5548,19 +5548,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U17" t="n">
-        <v>1715.732642722258</v>
+        <v>1470.524361638229</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722258</v>
+        <v>1470.524361638229</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1470.524361638229</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1107.107478512263</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722258</v>
+        <v>1107.107478512263</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1069.118384851047</v>
+        <v>466.1670950811639</v>
       </c>
       <c r="C18" t="n">
-        <v>879.7061105840106</v>
+        <v>276.7548208141276</v>
       </c>
       <c r="D18" t="n">
-        <v>718.9259943450423</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="E18" t="n">
-        <v>545.3627904664568</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F18" t="n">
-        <v>384.9350741837009</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G18" t="n">
-        <v>235.4660406069408</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H18" t="n">
         <v>115.9747045751594</v>
@@ -5603,43 +5603,43 @@
         <v>478.3196054885461</v>
       </c>
       <c r="M18" t="n">
-        <v>853.2112150416077</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N18" t="n">
-        <v>1256.444979541619</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q18" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1448.884598007117</v>
+        <v>1622.395054111299</v>
       </c>
       <c r="U18" t="n">
-        <v>1448.884598007117</v>
+        <v>1382.821928438846</v>
       </c>
       <c r="V18" t="n">
-        <v>1448.884598007117</v>
+        <v>1139.74221034248</v>
       </c>
       <c r="W18" t="n">
-        <v>1448.884598007117</v>
+        <v>870.3436410727713</v>
       </c>
       <c r="X18" t="n">
-        <v>1448.884598007117</v>
+        <v>870.3436410727713</v>
       </c>
       <c r="Y18" t="n">
-        <v>1247.654237777982</v>
+        <v>644.7029480080989</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="C19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="D19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="E19" t="n">
-        <v>1576.889614169534</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="F19" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>1576.889614169534</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>1715.732642722258</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="R19" t="n">
-        <v>1715.732642722258</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="S19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="W19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="X19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
       <c r="Y19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.52688262414529</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>978.9465481215775</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C20" t="n">
-        <v>978.9465481215775</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D20" t="n">
-        <v>978.9465481215775</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E20" t="n">
-        <v>978.9465481215775</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F20" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603022</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193754</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
@@ -5779,25 +5779,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S20" t="n">
-        <v>1519.054059427092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T20" t="n">
-        <v>1300.7066125121</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1300.7066125121</v>
+        <v>1612.765249440181</v>
       </c>
       <c r="V20" t="n">
-        <v>1300.7066125121</v>
+        <v>1612.765249440181</v>
       </c>
       <c r="W20" t="n">
-        <v>978.9465481215775</v>
+        <v>1612.765249440181</v>
       </c>
       <c r="X20" t="n">
-        <v>978.9465481215775</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y20" t="n">
-        <v>978.9465481215775</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>758.1056679082076</v>
+        <v>304.5262490036893</v>
       </c>
       <c r="C21" t="n">
-        <v>758.1056679082076</v>
+        <v>115.113974736653</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>115.113974736653</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>115.113974736653</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>115.113974736653</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>304.6946924676438</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5863020207054</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N21" t="n">
-        <v>1082.820066520716</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O21" t="n">
-        <v>1395.95310056761</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722258</v>
@@ -5861,22 +5861,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T21" t="n">
-        <v>1715.732642722258</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U21" t="n">
-        <v>1715.732642722258</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V21" t="n">
-        <v>1472.652924625892</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W21" t="n">
-        <v>1203.254355356184</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X21" t="n">
-        <v>983.74636097288</v>
+        <v>530.1669420683617</v>
       </c>
       <c r="Y21" t="n">
-        <v>758.1056679082076</v>
+        <v>304.5262490036893</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
         <v>34.31465285444516</v>
@@ -5913,49 +5913,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V22" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1064.875876963951</v>
+        <v>624.859162379912</v>
       </c>
       <c r="C23" t="n">
-        <v>711.1329503162957</v>
+        <v>624.859162379912</v>
       </c>
       <c r="D23" t="n">
-        <v>369.9489506776823</v>
+        <v>624.859162379912</v>
       </c>
       <c r="E23" t="n">
-        <v>369.9489506776823</v>
+        <v>249.6279380752291</v>
       </c>
       <c r="F23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5989,22 +5989,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P23" t="n">
         <v>1650.639799716936</v>
@@ -6028,13 +6028,13 @@
         <v>1715.732642722258</v>
       </c>
       <c r="W23" t="n">
-        <v>1442.7417763355</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X23" t="n">
-        <v>1442.7417763355</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="Y23" t="n">
-        <v>1442.7417763355</v>
+        <v>624.859162379912</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.31465285444516</v>
+        <v>412.129945380424</v>
       </c>
       <c r="C24" t="n">
-        <v>34.31465285444516</v>
+        <v>222.7176711133877</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="E24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H24" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I24" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>112.3287381944635</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>395.2338702498417</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M24" t="n">
-        <v>770.1254798029032</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N24" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O24" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P24" t="n">
         <v>1715.732642722258</v>
@@ -6092,28 +6092,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025987</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062328</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365241</v>
+        <v>810.1737926906627</v>
       </c>
       <c r="X24" t="n">
-        <v>263.3188973532204</v>
+        <v>590.6657983073591</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.6782042885481</v>
+        <v>590.6657983073591</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1698.6270176014</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1555.519804255718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.31465285444516</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="D26" t="n">
-        <v>34.31465285444516</v>
+        <v>1152.452144315712</v>
       </c>
       <c r="E26" t="n">
-        <v>34.31465285444516</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H26" t="n">
         <v>34.31465285444516</v>
@@ -6229,49 +6229,49 @@
         <v>79.26440887602988</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389716</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292773</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1195.201146295157</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="U26" t="n">
-        <v>942.6401640759908</v>
+        <v>1497.385195807267</v>
       </c>
       <c r="V26" t="n">
-        <v>798.327590022408</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="W26" t="n">
-        <v>798.327590022408</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="X26" t="n">
-        <v>798.327590022408</v>
+        <v>1173.264202262669</v>
       </c>
       <c r="Y26" t="n">
-        <v>412.180552225994</v>
+        <v>1173.264202262669</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>223.7269271214814</v>
+        <v>557.717847282823</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F27" t="n">
         <v>34.31465285444516</v>
@@ -6305,16 +6305,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>395.2338702498412</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>770.1254798029028</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N27" t="n">
         <v>1173.359244302914</v>
@@ -6329,28 +6329,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722258</v>
+        <v>1707.813107631589</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722258</v>
+        <v>1707.813107631589</v>
       </c>
       <c r="T27" t="n">
-        <v>1599.46288053492</v>
+        <v>1707.813107631589</v>
       </c>
       <c r="U27" t="n">
-        <v>1359.889754862467</v>
+        <v>1468.239981959136</v>
       </c>
       <c r="V27" t="n">
-        <v>1116.810036766101</v>
+        <v>1225.160263862771</v>
       </c>
       <c r="W27" t="n">
-        <v>847.4114674963926</v>
+        <v>955.7616945930617</v>
       </c>
       <c r="X27" t="n">
-        <v>627.9034731130889</v>
+        <v>736.2537002097581</v>
       </c>
       <c r="Y27" t="n">
-        <v>402.2627800484165</v>
+        <v>736.2537002097581</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>191.7504620343403</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444516</v>
+        <v>51.42027797530324</v>
       </c>
       <c r="G28" t="n">
         <v>34.31465285444516</v>
@@ -6387,49 +6387,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>260.76332841127</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1715.732642722258</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.616552461097</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="D29" t="n">
-        <v>1238.432552822484</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="E29" t="n">
-        <v>863.2013285178008</v>
+        <v>860.6632555829353</v>
       </c>
       <c r="F29" t="n">
-        <v>455.9293591844538</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H29" t="n">
         <v>34.31465285444516</v>
@@ -6463,16 +6463,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
@@ -6481,34 +6481,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X29" t="n">
-        <v>1715.732642722258</v>
+        <v>1246.810293379349</v>
       </c>
       <c r="Y29" t="n">
-        <v>1715.732642722258</v>
+        <v>860.6632555829353</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="C30" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D30" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E30" t="n">
         <v>34.31465285444516</v>
@@ -6542,52 +6542,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M30" t="n">
-        <v>679.5863020207054</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N30" t="n">
-        <v>1082.820066520716</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T30" t="n">
-        <v>1410.050606267884</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U30" t="n">
-        <v>1170.477480595431</v>
+        <v>1279.180107648312</v>
       </c>
       <c r="V30" t="n">
-        <v>927.3977624990649</v>
+        <v>1036.100389551946</v>
       </c>
       <c r="W30" t="n">
-        <v>657.9991932293563</v>
+        <v>766.7018202822377</v>
       </c>
       <c r="X30" t="n">
-        <v>438.4911988460526</v>
+        <v>547.1938258989341</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8505057813803</v>
+        <v>547.1938258989341</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="T31" t="n">
-        <v>1706.726320836544</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="U31" t="n">
-        <v>1415.189620196681</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V31" t="n">
-        <v>1415.189620196681</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1497.385195807266</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="C32" t="n">
-        <v>1497.385195807266</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="D32" t="n">
-        <v>1497.385195807266</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="E32" t="n">
-        <v>1198.835626341038</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="F32" t="n">
-        <v>791.5636570076908</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="G32" t="n">
-        <v>369.9489506776823</v>
+        <v>263.1140408369599</v>
       </c>
       <c r="H32" t="n">
         <v>34.31465285444516</v>
@@ -6700,25 +6700,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193747</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
         <v>1715.732642722258</v>
@@ -6727,25 +6727,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T32" t="n">
-        <v>1497.385195807266</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U32" t="n">
-        <v>1497.385195807266</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V32" t="n">
-        <v>1497.385195807266</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="W32" t="n">
-        <v>1497.385195807266</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="X32" t="n">
-        <v>1497.385195807266</v>
+        <v>684.7287471669686</v>
       </c>
       <c r="Y32" t="n">
-        <v>1497.385195807266</v>
+        <v>684.7287471669686</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>252.2229140271336</v>
+        <v>397.290131000067</v>
       </c>
       <c r="C33" t="n">
-        <v>62.8106397600973</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D33" t="n">
-        <v>62.8106397600973</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E33" t="n">
-        <v>62.8106397600973</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
-        <v>62.8106397600973</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
         <v>34.31465285444516</v>
@@ -6779,16 +6779,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3287381944631</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>395.2338702498412</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M33" t="n">
-        <v>770.1254798029028</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N33" t="n">
         <v>1173.359244302914</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.958867440572</v>
+        <v>1568.923399046183</v>
       </c>
       <c r="T33" t="n">
-        <v>1627.958867440572</v>
+        <v>1354.917105814118</v>
       </c>
       <c r="U33" t="n">
-        <v>1388.385741768119</v>
+        <v>1354.917105814118</v>
       </c>
       <c r="V33" t="n">
-        <v>1145.306023671753</v>
+        <v>1111.837387717752</v>
       </c>
       <c r="W33" t="n">
-        <v>875.9074544020447</v>
+        <v>842.438818448043</v>
       </c>
       <c r="X33" t="n">
-        <v>656.399460018741</v>
+        <v>622.9308240647393</v>
       </c>
       <c r="Y33" t="n">
-        <v>430.7587669540687</v>
+        <v>397.290131000067</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.61453690594595</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C34" t="n">
-        <v>41.61453690594595</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D34" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>41.61453690594595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
         <v>34.31465285444516</v>
@@ -6861,49 +6861,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U34" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V34" t="n">
-        <v>334.857675380022</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W34" t="n">
-        <v>41.61453690594595</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X34" t="n">
-        <v>41.61453690594595</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y34" t="n">
-        <v>41.61453690594595</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>441.5866221877922</v>
+        <v>951.719705554296</v>
       </c>
       <c r="C35" t="n">
-        <v>441.5866221877922</v>
+        <v>951.719705554296</v>
       </c>
       <c r="D35" t="n">
-        <v>441.5866221877922</v>
+        <v>951.719705554296</v>
       </c>
       <c r="E35" t="n">
-        <v>441.5866221877922</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="U35" t="n">
-        <v>1515.27153665477</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="V35" t="n">
-        <v>1191.150543110172</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="W35" t="n">
-        <v>1191.150543110172</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="X35" t="n">
-        <v>827.7336599842063</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Y35" t="n">
-        <v>441.5866221877922</v>
+        <v>1329.585604925845</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>643.5752636441825</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="C36" t="n">
-        <v>454.1629893771462</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D36" t="n">
-        <v>454.1629893771462</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E36" t="n">
-        <v>454.1629893771462</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F36" t="n">
-        <v>293.7352730943903</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G36" t="n">
-        <v>144.2662395176302</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H36" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K36" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>478.319605488546</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M36" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302914</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349808</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R36" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T36" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="U36" t="n">
-        <v>1536.658373288802</v>
+        <v>1277.749957894249</v>
       </c>
       <c r="V36" t="n">
-        <v>1536.658373288802</v>
+        <v>1277.749957894249</v>
       </c>
       <c r="W36" t="n">
-        <v>1267.259804019094</v>
+        <v>1277.749957894249</v>
       </c>
       <c r="X36" t="n">
-        <v>1047.75180963579</v>
+        <v>1058.241963510946</v>
       </c>
       <c r="Y36" t="n">
-        <v>822.1111165711177</v>
+        <v>1058.241963510946</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.195942082395</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>213.7256838291604</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>213.7256838291604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34.31465285444516</v>
+        <v>672.4361903861449</v>
       </c>
       <c r="C38" t="n">
-        <v>34.31465285444516</v>
+        <v>672.4361903861449</v>
       </c>
       <c r="D38" t="n">
-        <v>34.31465285444516</v>
+        <v>672.4361903861449</v>
       </c>
       <c r="E38" t="n">
-        <v>34.31465285444516</v>
+        <v>672.4361903861449</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444516</v>
+        <v>557.3318417915689</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K38" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L38" t="n">
         <v>525.528369138972</v>
@@ -7192,7 +7192,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
@@ -7204,22 +7204,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T38" t="n">
-        <v>1701.870108960556</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1449.30912674139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V38" t="n">
-        <v>1125.188133196792</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W38" t="n">
-        <v>783.8785737768251</v>
+        <v>1050.302089757694</v>
       </c>
       <c r="X38" t="n">
-        <v>420.4616906508592</v>
+        <v>1050.302089757694</v>
       </c>
       <c r="Y38" t="n">
-        <v>34.31465285444516</v>
+        <v>1050.302089757694</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>677.5615832708168</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>488.1493090037804</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K39" t="n">
-        <v>34.31465285444516</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L39" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M39" t="n">
-        <v>692.1113944628848</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N39" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440572</v>
+        <v>1588.08371794713</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1588.08371794713</v>
       </c>
       <c r="U39" t="n">
-        <v>1388.385741768119</v>
+        <v>1588.08371794713</v>
       </c>
       <c r="V39" t="n">
-        <v>1388.385741768119</v>
+        <v>1345.003999850764</v>
       </c>
       <c r="W39" t="n">
-        <v>1388.385741768119</v>
+        <v>1075.605430581056</v>
       </c>
       <c r="X39" t="n">
-        <v>1388.385741768119</v>
+        <v>856.0974361977519</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>856.0974361977519</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G40" t="n">
-        <v>34.31465285444516</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H40" t="n">
         <v>34.31465285444516</v>
@@ -7335,49 +7335,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="U40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="V40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="W40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="X40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="Y40" t="n">
-        <v>204.0671920298242</v>
+        <v>196.0146468272985</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>375.4986524930586</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C41" t="n">
-        <v>375.4986524930586</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D41" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E41" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G41" t="n">
         <v>34.31465285444516</v>
@@ -7411,16 +7411,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602999</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M41" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7429,34 +7429,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T41" t="n">
-        <v>1497.385195807266</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U41" t="n">
-        <v>1497.385195807266</v>
+        <v>1241.06722788935</v>
       </c>
       <c r="V41" t="n">
-        <v>1497.385195807266</v>
+        <v>1241.06722788935</v>
       </c>
       <c r="W41" t="n">
-        <v>1497.385195807266</v>
+        <v>1241.06722788935</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.511589661021</v>
+        <v>1241.06722788935</v>
       </c>
       <c r="Y41" t="n">
-        <v>753.3645518646074</v>
+        <v>1241.06722788935</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7269271214814</v>
+        <v>908.3382686120787</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444516</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M42" t="n">
-        <v>770.1254798029028</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N42" t="n">
         <v>1173.359244302914</v>
@@ -7514,28 +7514,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T42" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U42" t="n">
-        <v>995.3051791025982</v>
+        <v>1356.272690808722</v>
       </c>
       <c r="V42" t="n">
-        <v>847.4114674963926</v>
+        <v>1356.272690808722</v>
       </c>
       <c r="W42" t="n">
-        <v>847.4114674963926</v>
+        <v>1086.874121539014</v>
       </c>
       <c r="X42" t="n">
-        <v>627.9034731130889</v>
+        <v>1086.874121539014</v>
       </c>
       <c r="Y42" t="n">
-        <v>402.2627800484165</v>
+        <v>1086.874121539014</v>
       </c>
     </row>
     <row r="43">
@@ -7572,31 +7572,31 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q43" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R43" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S43" t="n">
-        <v>34.31465285444516</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T43" t="n">
         <v>34.31465285444516</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="C44" t="n">
-        <v>1109.428733855436</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="D44" t="n">
-        <v>768.2447342168227</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="E44" t="n">
-        <v>768.2447342168227</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="F44" t="n">
-        <v>360.9727648834757</v>
+        <v>753.7156416576358</v>
       </c>
       <c r="G44" t="n">
-        <v>34.31465285444516</v>
+        <v>332.1009353276272</v>
       </c>
       <c r="H44" t="n">
         <v>34.31465285444516</v>
@@ -7654,10 +7654,10 @@
         <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
@@ -7666,34 +7666,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="X44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="Y44" t="n">
-        <v>1463.171660503092</v>
+        <v>1160.987610990983</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1069.118384851047</v>
+        <v>719.2783943012547</v>
       </c>
       <c r="C45" t="n">
-        <v>879.7061105840106</v>
+        <v>719.2783943012547</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>558.4982780622864</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="F45" t="n">
         <v>384.9350741837009</v>
@@ -7727,25 +7727,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2338702498412</v>
+        <v>304.6946924676437</v>
       </c>
       <c r="M45" t="n">
-        <v>770.1254798029028</v>
+        <v>679.5863020207053</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
@@ -7757,22 +7757,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T45" t="n">
-        <v>1692.802925225958</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U45" t="n">
-        <v>1692.802925225958</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V45" t="n">
-        <v>1692.802925225958</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="W45" t="n">
-        <v>1692.802925225958</v>
+        <v>1164.427081749231</v>
       </c>
       <c r="X45" t="n">
-        <v>1473.294930842654</v>
+        <v>944.919087365927</v>
       </c>
       <c r="Y45" t="n">
-        <v>1247.654237777982</v>
+        <v>719.2783943012547</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F46" t="n">
-        <v>204.0671920298242</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
         <v>34.31465285444516</v>
@@ -7809,49 +7809,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="U46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.857675380022</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
   </sheetData>
@@ -8768,16 +8768,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
-        <v>8.64638209049167</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>268.8276482817242</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372811</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9020,13 +9020,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O15" t="n">
-        <v>59.54645836938539</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,7 +9242,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>61.40936639976317</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K18" t="n">
         <v>171.373473584151</v>
@@ -9251,13 +9251,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888867</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
-        <v>79.84408287020696</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
         <v>206.3638740786793</v>
@@ -9479,19 +9479,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>64.92584373552822</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9716,10 +9716,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
-        <v>67.1508639937289</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890789</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,19 +9953,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>136.081934166219</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,7 +10190,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
         <v>171.373473584151</v>
@@ -10199,19 +10199,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>106.100556788065</v>
+        <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017202</v>
       </c>
       <c r="P30" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>67.15086399372845</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10439,7 +10439,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O33" t="n">
         <v>255.2227828913207</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,19 +10664,19 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
-        <v>240.3045437566416</v>
+        <v>136.0819341662197</v>
       </c>
       <c r="M36" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>226.6888734850218</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>8.64638209049167</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10919,10 +10919,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>193.7122655512253</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315039</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
@@ -11141,13 +11141,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>197.5542717195775</v>
+        <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
         <v>310.6138585746227</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11375,13 +11375,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470622</v>
       </c>
       <c r="M45" t="n">
         <v>301.77688131</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>45.25992804697592</v>
+        <v>84.40246188850119</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>52.29243489304046</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>244.0041632556745</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23475,13 +23475,13 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>290.3107070893353</v>
       </c>
       <c r="X13" t="n">
-        <v>221.9194554082425</v>
+        <v>169.4908782923713</v>
       </c>
       <c r="Y13" t="n">
         <v>217.1412728141684</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>45.25992804697592</v>
+        <v>252.1584165208091</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0353723969745</v>
@@ -23557,10 +23557,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23576,22 +23576,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>70.18396676946347</v>
       </c>
       <c r="W15" t="n">
-        <v>244.0041632556745</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>174.1840844483078</v>
+        <v>147.648993701642</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>45.25992804697592</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>7.279174123785111</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23797,7 +23797,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>206.3580551037639</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.16622950718204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23898,16 +23898,16 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
-        <v>4.221542945028432</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>138.9268822184467</v>
+        <v>138.7167747464435</v>
       </c>
       <c r="G19" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
         <v>145.433169315347</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23980,16 +23980,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>148.0976530477177</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>19.35400007914939</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24050,25 +24050,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.384438249045</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>67.98301457760671</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,10 +24101,10 @@
         <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
-        <v>134.4492560012392</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
         <v>138.9268822184467</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24183,13 +24183,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>190.0390972714374</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24268,13 +24268,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>67.63550610287632</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>173.4205784779038</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>53.4967782037325</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -24305,7 +24305,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24369,13 +24369,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
-        <v>128.2480813810612</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24429,7 +24429,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>221.9194554082425</v>
+        <v>213.0031967413855</v>
       </c>
       <c r="Y25" t="n">
         <v>217.1412728141684</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>317.1682222747404</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H26" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>185.5090622027478</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>178.010335296105</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>337.8964638257669</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24530,10 +24530,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>147.9743432409925</v>
@@ -24542,7 +24542,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>79.05569778910665</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>96.75916573428063</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -24609,13 +24609,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0550137836253</v>
+        <v>151.1204449139758</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>101.0407884212465</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24682,22 +24682,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>215.4505680226297</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>334.7906470505214</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>194.7117974622146</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24764,10 +24764,10 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -24779,7 +24779,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>16.85661499226669</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
-        <v>224.1841888012565</v>
+        <v>216.9573035902707</v>
       </c>
       <c r="T31" t="n">
-        <v>212.0861385338497</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24925,16 +24925,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>75.91483829007007</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>105.7665607423151</v>
       </c>
       <c r="I32" t="n">
         <v>185.5090622027478</v>
@@ -24967,13 +24967,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24982,7 +24982,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,19 +25004,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>119.7633162043969</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>31.94237549980647</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>68.64745515109635</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -25092,13 +25092,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
-        <v>152.856108822139</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I34" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
         <v>174.3941919203111</v>
@@ -25128,7 +25128,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25137,7 +25137,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
         <v>221.9194554082425</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>350.2054973811788</v>
@@ -25162,16 +25162,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>212.9244240004971</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25210,16 +25210,16 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>51.57887739016155</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,13 +25235,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>90.28780307841745</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,19 +25289,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>67.75410070398888</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25365,13 +25365,13 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>101.0817255653537</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,16 +25402,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>289.2459445313833</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>202.4400640217567</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>50.91109121174399</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.06009718378971</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25563,16 +25563,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H40" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25602,7 +25602,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>91.51981868401097</v>
+        <v>83.54779893351039</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25633,16 +25633,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>332.2779548450047</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0353723969745</v>
+        <v>100.7309957130102</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25693,10 +25693,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>5.487844209923765</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>93.17827232107277</v>
       </c>
       <c r="V42" t="n">
-        <v>94.23414642525864</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
-        <v>174.1840844483081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.0023972007068</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="U43" t="n">
         <v>288.6213336334641</v>
@@ -25867,10 +25867,10 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
         <v>371.4789120616362</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>94.00702835796824</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>37.46953519655449</v>
       </c>
       <c r="I44" t="n">
         <v>185.5090622027478</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>189.1658099784082</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>169.9557029291877</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
-        <v>9.44430370175084</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
         <v>160.0829940331247</v>
@@ -26046,7 +26046,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
         <v>174.3941919203111</v>
@@ -26076,7 +26076,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>221.0023972007068</v>
+        <v>62.39168711883218</v>
       </c>
       <c r="U46" t="n">
         <v>288.6213336334641</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>548428.6489691199</v>
+        <v>548428.6489691196</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>548428.6489691199</v>
+        <v>548428.6489691195</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>548428.6489691195</v>
+        <v>548428.6489691196</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>548428.6489691195</v>
+        <v>548428.6489691196</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548428.6489691196</v>
+        <v>548428.64896912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>548428.6489691195</v>
+        <v>548428.6489691196</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>548428.6489691195</v>
+        <v>548428.6489691198</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235216</v>
       </c>
       <c r="C2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235216</v>
       </c>
       <c r="D2" t="n">
-        <v>617352.3966235217</v>
+        <v>617352.3966235216</v>
       </c>
       <c r="E2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="F2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="G2" t="n">
         <v>350646.9751767689</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>350646.9751767692</v>
+      </c>
+      <c r="I2" t="n">
+        <v>350646.9751767692</v>
+      </c>
+      <c r="J2" t="n">
+        <v>350646.9751767693</v>
+      </c>
+      <c r="K2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="L2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="M2" t="n">
         <v>350646.975176769</v>
       </c>
-      <c r="G2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>350646.9751767691</v>
-      </c>
-      <c r="I2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="J2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="K2" t="n">
-        <v>350646.9751767688</v>
-      </c>
-      <c r="L2" t="n">
-        <v>350646.9751767687</v>
-      </c>
-      <c r="M2" t="n">
-        <v>350646.9751767691</v>
-      </c>
-      <c r="N2" t="n">
-        <v>350646.9751767689</v>
       </c>
       <c r="O2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="P2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767692</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="C4" t="n">
         <v>403791.6199395953</v>
       </c>
       <c r="D4" t="n">
-        <v>403791.6199395953</v>
+        <v>403791.6199395952</v>
       </c>
       <c r="E4" t="n">
         <v>22779.9226089727</v>
@@ -26481,7 +26481,7 @@
         <v>36091.33751189046</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189046</v>
@@ -26493,25 +26493,25 @@
         <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179933.1766839264</v>
+        <v>179888.5128418744</v>
       </c>
       <c r="C6" t="n">
-        <v>179933.1766839264</v>
+        <v>179888.5128418744</v>
       </c>
       <c r="D6" t="n">
-        <v>179933.1766839264</v>
+        <v>179888.5128418744</v>
       </c>
       <c r="E6" t="n">
-        <v>-205277.4367615867</v>
+        <v>-214847.2942267368</v>
       </c>
       <c r="F6" t="n">
-        <v>291775.7150559059</v>
+        <v>282205.8575907557</v>
       </c>
       <c r="G6" t="n">
-        <v>291775.7150559059</v>
+        <v>282205.8575907555</v>
       </c>
       <c r="H6" t="n">
-        <v>291775.7150559059</v>
+        <v>282205.8575907558</v>
       </c>
       <c r="I6" t="n">
-        <v>291775.7150559059</v>
+        <v>282205.8575907558</v>
       </c>
       <c r="J6" t="n">
-        <v>291775.7150559058</v>
+        <v>282205.8575907559</v>
       </c>
       <c r="K6" t="n">
-        <v>291775.7150559057</v>
+        <v>282205.8575907557</v>
       </c>
       <c r="L6" t="n">
-        <v>291775.7150559056</v>
+        <v>282205.8575907557</v>
       </c>
       <c r="M6" t="n">
-        <v>184883.8556816665</v>
+        <v>175313.9982165163</v>
       </c>
       <c r="N6" t="n">
-        <v>291775.7150559057</v>
+        <v>282205.8575907557</v>
       </c>
       <c r="O6" t="n">
-        <v>291775.7150559058</v>
+        <v>282205.8575907556</v>
       </c>
       <c r="P6" t="n">
-        <v>291775.7150559059</v>
+        <v>282205.8575907558</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409237</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="H3" t="n">
         <v>459.2752909409236</v>
@@ -26779,7 +26779,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="H4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="I4" t="n">
         <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="M4" t="n">
+        <v>428.9331606805647</v>
+      </c>
+      <c r="N4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="O4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="P4" t="n">
         <v>428.9331606805645</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="N4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="O4" t="n">
-        <v>428.9331606805645</v>
-      </c>
-      <c r="P4" t="n">
-        <v>428.9331606805644</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,19 +31755,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
         <v>324.1998891675596</v>
@@ -31776,10 +31776,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,13 +31864,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
         <v>0.06499178645390431</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31931,7 +31931,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,16 +31940,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
         <v>0.0451746187810745</v>
@@ -32238,16 +32238,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
         <v>311.0863102573771</v>
@@ -32256,16 +32256,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R17" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T17" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993453</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357018</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
         <v>256.9298629953381</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196984</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315142</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340267</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32414,7 +32414,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
         <v>37.2389440818657</v>
@@ -32426,7 +32426,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107451</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,19 +32466,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
         <v>324.1998891675596</v>
@@ -32487,10 +32487,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,13 +32575,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390431</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,16 +32651,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
         <v>0.0451746187810745</v>
@@ -32703,19 +32703,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
         <v>324.1998891675596</v>
@@ -32724,10 +32724,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
         <v>199.3831741692328</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32800,10 +32800,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,13 +32812,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
         <v>0.06499178645390431</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,16 +32888,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
         <v>0.0451746187810745</v>
@@ -32940,19 +32940,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
         <v>324.1998891675596</v>
@@ -32961,10 +32961,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692328</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33037,10 +33037,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
         <v>188.640826575339</v>
@@ -33049,13 +33049,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
         <v>0.06499178645390431</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33116,7 +33116,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
         <v>117.0624954680243</v>
@@ -33125,16 +33125,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
         <v>0.0451746187810745</v>
@@ -33177,19 +33177,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
         <v>324.1998891675596</v>
@@ -33198,10 +33198,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692328</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33274,10 +33274,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
         <v>188.640826575339</v>
@@ -33286,13 +33286,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
         <v>0.06499178645390431</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33353,7 +33353,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
         <v>117.0624954680243</v>
@@ -33362,16 +33362,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
         <v>0.0451746187810745</v>
@@ -33414,19 +33414,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
         <v>324.1998891675596</v>
@@ -33435,10 +33435,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692328</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33511,10 +33511,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
         <v>188.640826575339</v>
@@ -33523,13 +33523,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
         <v>0.06499178645390431</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33590,7 +33590,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
         <v>117.0624954680243</v>
@@ -33599,16 +33599,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
         <v>0.0451746187810745</v>
@@ -33651,19 +33651,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
         <v>324.1998891675596</v>
@@ -33672,10 +33672,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692328</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33748,10 +33748,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
         <v>188.640826575339</v>
@@ -33760,13 +33760,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
         <v>0.06499178645390431</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33827,7 +33827,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
         <v>117.0624954680243</v>
@@ -33836,16 +33836,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
         <v>0.0451746187810745</v>
@@ -33888,19 +33888,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
         <v>324.1998891675596</v>
@@ -33909,10 +33909,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
         <v>199.3831741692328</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -33985,10 +33985,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
         <v>188.640826575339</v>
@@ -33997,13 +33997,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
         <v>0.06499178645390431</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34064,7 +34064,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
         <v>117.0624954680243</v>
@@ -34073,16 +34073,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
         <v>0.0451746187810745</v>
@@ -34125,19 +34125,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
         <v>324.1998891675596</v>
@@ -34146,10 +34146,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O41" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
         <v>199.3831741692328</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H42" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34222,10 +34222,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N42" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
         <v>188.640826575339</v>
@@ -34234,13 +34234,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S42" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
         <v>0.06499178645390431</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H43" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I43" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34301,7 +34301,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
         <v>117.0624954680243</v>
@@ -34310,16 +34310,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
         <v>0.0451746187810745</v>
@@ -34362,43 +34362,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K44" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R44" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L45" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M45" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N45" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
         <v>188.640826575339</v>
@@ -34471,16 +34471,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
@@ -34538,7 +34538,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
         <v>117.0624954680243</v>
@@ -34547,19 +34547,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336424</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7291604596652</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35509,7 +35509,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,19 +35570,19 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
         <v>19.62327613144092</v>
@@ -35728,7 +35728,7 @@
         <v>20.29762450082175</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323647</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518972</v>
@@ -35740,13 +35740,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6196694648263</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151266</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811783</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.678393487941</v>
+        <v>203.2996934668277</v>
       </c>
       <c r="N18" t="n">
         <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>140.9172939656479</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151266</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676519</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793121</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186798</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
-        <v>19.62327613144093</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
@@ -36135,13 +36135,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>110.3840596307838</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
         <v>19.62327613144092</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
@@ -36372,13 +36372,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>58.50448190323724</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>231.5559236085354</v>
+        <v>147.630938518935</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
         <v>19.62327613144092</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
         <v>334.4622543336424</v>
@@ -36609,13 +36609,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>181.5401500614746</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
         <v>19.62327613144092</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
         <v>334.4622543336424</v>
@@ -36846,13 +36846,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>183.002068966006</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971611</v>
       </c>
       <c r="P30" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
         <v>19.62327613144092</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
         <v>334.4622543336424</v>
@@ -37083,13 +37083,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>58.50448190323679</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>407.306832828294</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
         <v>19.62327613144092</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
         <v>334.4622543336424</v>
@@ -37320,13 +37320,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518971</v>
+        <v>181.5401500614753</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>323.3818477386931</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
         <v>19.62327613144092</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
         <v>334.4622543336424</v>
@@ -37557,13 +37557,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>218.9043150810814</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,19 +37703,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
         <v>19.62327613144092</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.4037939611968</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
         <v>334.4622543336424</v>
@@ -37794,13 +37794,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>274.4557838975185</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867616</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M43" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P43" t="n">
         <v>19.62327613144092</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>90.08643512996187</v>
       </c>
       <c r="M45" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
